--- a/biology/Zoologie/Agyrtidae/Agyrtidae.xlsx
+++ b/biology/Zoologie/Agyrtidae/Agyrtidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Agyrtidae sont une famille d'insectes de l'ordre des Coléoptères.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (5 septembre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (5 septembre 2021) :
 Agyrtinae C. G. Thomson, 1859
 Necrophilinae Newton, 1997
 Pterolomatinae C. G. Thomson, 1862</t>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (5 septembre 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (5 septembre 2021) :
 Agyrtes Frélich, 1799
 Apteroloma Hatch, 1927
 Ecanus Stephens, 1839
@@ -564,7 +580,7 @@
 			Lyrosoma opacum.
 			Pteroloma forsstromii.
 			Zeanecrophilus prolongatus.
-Selon Paleobiology Database                   (5 septembre 2021)[3] (taxons fossiles) :
+Selon Paleobiology Database                   (5 septembre 2021) (taxons fossiles) :
 Agyrtinae
 Agyrtes
 Ipelates
@@ -603,9 +619,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique de ce taxon est Agyrtidae, choisi en 1859 par l'entomologiste suédois Carl Gustaf Thomson, le genre type étant Agyrtes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique de ce taxon est Agyrtidae, choisi en 1859 par l'entomologiste suédois Carl Gustaf Thomson, le genre type étant Agyrtes.
 </t>
         </is>
       </c>
